--- a/results/mp/logistic/corona/confidence/42/masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,28 +49,31 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>panic</t>
   </si>
   <si>
     <t>falling</t>
@@ -79,9 +82,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -91,156 +91,144 @@
     <t>no</t>
   </si>
   <si>
-    <t>cut</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>support</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>important</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -251,9 +239,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -611,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8888888888888888</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,16 +736,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8013698630136986</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.76</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -898,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>0.8660714285714286</v>
@@ -930,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8381201044386423</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L9">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M9">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,7 +1015,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6486486486486487</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -1048,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5932203389830508</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5608465608465608</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C12">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.7830188679245284</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5294117647058824</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.525</v>
+        <v>0.5213178294573644</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5167785234899329</v>
+        <v>0.475</v>
       </c>
       <c r="C15">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7682926829268293</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5096899224806202</v>
+        <v>0.436241610738255</v>
       </c>
       <c r="C16">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,16 +1386,16 @@
         <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4107142857142857</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7575757575757576</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1465,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4027777777777778</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C19">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D19">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.74375</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1515,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3818181818181818</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.7435897435897436</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1565,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2888888888888889</v>
+        <v>0.2420634920634921</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1615,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.25</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.6984126984126984</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1665,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1447721179624665</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.6976744186046512</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1722,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,37 +1715,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01602023608768971</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="C24">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2334</v>
+        <v>277</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1772,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,37 +1765,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01321727917472598</v>
+        <v>0.01137800252844501</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E25">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="F25">
-        <v>0.89</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3061</v>
+        <v>2346</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.675</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1822,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,37 +1815,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01029480580252691</v>
+        <v>0.01064172847468559</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E26">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="F26">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2115</v>
+        <v>3068</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.6571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1872,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1880,37 +1865,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.008253692441355343</v>
+        <v>0.006273234200743495</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="F27">
-        <v>0.73</v>
+        <v>0.53</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2283</v>
+        <v>4277</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.6352941176470588</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L27">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="M27">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1922,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1930,37 +1915,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006834170854271356</v>
+        <v>0.005836575875486381</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>55</v>
       </c>
       <c r="E28">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="F28">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>4941</v>
+        <v>5110</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.6060606060606061</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1972,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1980,87 +1965,63 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00642148277875073</v>
+        <v>0.004828002414001207</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E29">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="F29">
-        <v>0.5600000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>5106</v>
+        <v>4947</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="L29">
+        <v>37</v>
+      </c>
+      <c r="M29">
+        <v>37</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K29">
-        <v>0.5864406779661017</v>
-      </c>
-      <c r="L29">
-        <v>173</v>
-      </c>
-      <c r="M29">
-        <v>173</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.006270320483046911</v>
-      </c>
-      <c r="C30">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>49</v>
-      </c>
-      <c r="E30">
-        <v>0.45</v>
-      </c>
-      <c r="F30">
-        <v>0.55</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>4279</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K30">
-        <v>0.5846153846153846</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2072,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5815899581589958</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L31">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2098,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2124,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.5531914893617021</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L33">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2150,21 +2111,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.5168539325842697</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2176,47 +2137,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.5142857142857142</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.4901960784313725</v>
+        <v>0.34375</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2228,21 +2189,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.4523809523809524</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2254,21 +2215,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.4444444444444444</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2280,267 +2241,163 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>0.3287671232876712</v>
+        <v>0.02591973244147157</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>49</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.328125</v>
+        <v>0.01088588588588589</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>0.282051282051282</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>56</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="K42">
-        <v>0.02255639097744361</v>
+        <v>0.005580097651708905</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N42">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="O42">
-        <v>0.09999999999999998</v>
+        <v>0.53</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>1170</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="K43">
-        <v>0.00900562851782364</v>
+        <v>0.00502815768302494</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N43">
-        <v>0.75</v>
+        <v>0.51</v>
       </c>
       <c r="O43">
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2641</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="K44">
-        <v>0.008371703641691083</v>
+        <v>0.004868549172346641</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N44">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="O44">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K45">
-        <v>0.006273525721455458</v>
-      </c>
-      <c r="L45">
-        <v>20</v>
-      </c>
-      <c r="M45">
-        <v>33</v>
-      </c>
-      <c r="N45">
-        <v>0.61</v>
-      </c>
-      <c r="O45">
-        <v>0.39</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3168</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K46">
-        <v>0.005115089514066497</v>
-      </c>
-      <c r="L46">
-        <v>22</v>
-      </c>
-      <c r="M46">
-        <v>49</v>
-      </c>
-      <c r="N46">
-        <v>0.45</v>
-      </c>
-      <c r="O46">
-        <v>0.55</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>4279</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K47">
-        <v>0.005066250974279034</v>
-      </c>
-      <c r="L47">
-        <v>26</v>
-      </c>
-      <c r="M47">
-        <v>59</v>
-      </c>
-      <c r="N47">
-        <v>0.44</v>
-      </c>
-      <c r="O47">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>5106</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K48">
-        <v>0.004232164449818622</v>
-      </c>
-      <c r="L48">
-        <v>21</v>
-      </c>
-      <c r="M48">
-        <v>55</v>
-      </c>
-      <c r="N48">
-        <v>0.38</v>
-      </c>
-      <c r="O48">
-        <v>0.62</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>4941</v>
+        <v>5110</v>
       </c>
     </row>
   </sheetData>
